--- a/Данные/Внутри России общее.xlsx
+++ b/Данные/Внутри России общее.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Округа</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Центральный федеральный округ</t>
   </si>
@@ -46,6 +43,12 @@
   </si>
   <si>
     <t>Дальневосточный федеральный округ</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Округ</t>
   </si>
 </sst>
 </file>
@@ -405,9 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C1:C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -418,16 +419,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4">
-        <v>2022</v>
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>42691417</v>
@@ -436,7 +437,7 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>29416965</v>
@@ -445,7 +446,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>28452925</v>
@@ -454,7 +455,7 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>3794310</v>
@@ -463,7 +464,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>15557056</v>
@@ -472,7 +473,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>7426868</v>
@@ -481,7 +482,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>9101167</v>
@@ -490,7 +491,7 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>4833876</v>
